--- a/Journaux de travail/JDT.xlsx
+++ b/Journaux de travail/JDT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
   <si>
     <t>Nom</t>
   </si>
@@ -98,6 +98,18 @@
   <si>
     <t>- Réalisation de la charte graphique du site web
 - Rédaction du journal de travail</t>
+  </si>
+  <si>
+    <t>- Préparation au teste numéro 2</t>
+  </si>
+  <si>
+    <t>- Préparation au teste numéro 3</t>
+  </si>
+  <si>
+    <t>- Préparation au teste numéro 4</t>
+  </si>
+  <si>
+    <t>- Préparation au teste numéro 5</t>
   </si>
 </sst>
 </file>
@@ -636,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A34:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +953,9 @@
       <c r="B31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -950,7 +964,9 @@
       <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -959,7 +975,9 @@
       <c r="B33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -968,7 +986,9 @@
       <c r="B34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>

--- a/Journaux de travail/JDT.xlsx
+++ b/Journaux de travail/JDT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>Nom</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>- Rédaction du journal de travail</t>
-  </si>
-  <si>
-    <t>- Rédaction d'une documentation sur la gestion de branche et de pull request</t>
   </si>
   <si>
     <t>- Aide Diogo sur la documentation de la gestion de branches et de pull request</t>
@@ -303,15 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -330,6 +318,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -339,7 +330,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,41 +645,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="12">
         <v>42485</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -690,10 +687,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -701,10 +698,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -712,10 +709,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -723,33 +720,33 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="12">
         <v>42489</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -757,10 +754,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -768,10 +765,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -779,10 +776,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -790,272 +787,277 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="12">
         <v>42492</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>42469</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>42469</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>42473</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>42473</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>42480</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C37" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>42480</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
@@ -1063,11 +1065,6 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
